--- a/domaingroups/Periplasmic binding protein-like II/e1o63A1_results.xlsx
+++ b/domaingroups/Periplasmic binding protein-like II/e1o63A1_results.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bounedutr-my.sharepoint.com/personal/yigit_kutlu_boun_edu_tr/Documents/Themes&amp;Dynamics/New Domains/Calculations/Periplasmic binding protein-like II/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bounedutr-my.sharepoint.com/personal/yigit_kutlu_bounedutr_onmicrosoft_com/Documents/Themes&amp;Dynamics/WebSiteFiles/Periplasmic binding protein-like II/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="12" documentId="11_F25DC773A252ABDACC10481D999E7FD05ADE58E0" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{17A3F604-BAA0-4DAE-A8EF-E912E6BB4322}"/>
+  <xr:revisionPtr revIDLastSave="13" documentId="11_F25DC773A252ABDACC10481D999E7FD05ADE58E0" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5D5D1384-4F19-4DA5-B33C-87418CE50D69}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="2340" windowWidth="15645" windowHeight="11250" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -47,9 +47,6 @@
     <t>Index</t>
   </si>
   <si>
-    <t>Dynamic Domains</t>
-  </si>
-  <si>
     <t>Theme Combinations</t>
   </si>
   <si>
@@ -225,6 +222,9 @@
   </si>
   <si>
     <t>Mode-7</t>
+  </si>
+  <si>
+    <t>Dynamic Elements</t>
   </si>
 </sst>
 </file>
@@ -595,8 +595,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AY21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AA1" workbookViewId="0">
-      <selection activeCell="AI7" sqref="AI7:AO7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -613,16 +613,16 @@
         <v>2</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>3</v>
+        <v>62</v>
       </c>
       <c r="I1" s="6"/>
       <c r="P1" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q1" s="6"/>
       <c r="R1" s="6"/>
       <c r="Y1" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Z1" s="8"/>
       <c r="AA1" s="8"/>
@@ -632,7 +632,7 @@
       <c r="AE1" s="8"/>
       <c r="AF1" s="8"/>
       <c r="AG1" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AH1" s="8"/>
       <c r="AI1" s="8"/>
@@ -642,12 +642,12 @@
       <c r="AM1" s="8"/>
       <c r="AN1" s="8"/>
       <c r="AO1" s="9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B2">
         <v>2</v>
@@ -659,25 +659,25 @@
         <v>1</v>
       </c>
       <c r="F2" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="H2" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="I2" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="I2" s="8" t="s">
+      <c r="J2" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="8" t="s">
+      <c r="K2" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="K2" s="8" t="s">
+      <c r="L2" s="8" t="s">
         <v>13</v>
-      </c>
-      <c r="L2" s="8" t="s">
-        <v>14</v>
       </c>
       <c r="N2" s="8"/>
       <c r="O2" s="8"/>
@@ -685,69 +685,69 @@
       <c r="Q2" s="8"/>
       <c r="R2" s="8"/>
       <c r="S2" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="T2" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="T2" s="8" t="s">
+      <c r="U2" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="U2" s="8" t="s">
+      <c r="V2" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="V2" s="8" t="s">
+      <c r="W2" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="W2" s="8" t="s">
+      <c r="X2" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="X2" s="8" t="s">
+      <c r="Y2" s="8" t="s">
         <v>47</v>
-      </c>
-      <c r="Y2" s="8" t="s">
-        <v>48</v>
       </c>
       <c r="Z2" s="8"/>
       <c r="AA2" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="AB2" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="AB2" s="8" t="s">
+      <c r="AC2" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="AC2" s="8" t="s">
+      <c r="AD2" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="AD2" s="8" t="s">
+      <c r="AE2" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="AE2" s="8" t="s">
+      <c r="AF2" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="AF2" s="8" t="s">
+      <c r="AG2" s="8" t="s">
         <v>54</v>
-      </c>
-      <c r="AG2" s="8" t="s">
-        <v>55</v>
       </c>
       <c r="AH2" s="8"/>
       <c r="AI2" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="AJ2" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="AJ2" s="8" t="s">
+      <c r="AK2" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="AK2" s="8" t="s">
+      <c r="AL2" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="AL2" s="8" t="s">
+      <c r="AM2" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="AM2" s="8" t="s">
+      <c r="AN2" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="AN2" s="8" t="s">
+      <c r="AO2" s="8" t="s">
         <v>61</v>
-      </c>
-      <c r="AO2" s="8" t="s">
-        <v>62</v>
       </c>
       <c r="AP2" s="8"/>
       <c r="AQ2" s="8"/>
@@ -762,7 +762,7 @@
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -872,7 +872,7 @@
     </row>
     <row r="4" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B4">
         <v>36</v>
@@ -982,7 +982,7 @@
     </row>
     <row r="5" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B5">
         <v>41</v>
@@ -1092,7 +1092,7 @@
     </row>
     <row r="6" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B6">
         <v>70</v>
@@ -1127,7 +1127,7 @@
     </row>
     <row r="7" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B7">
         <v>87</v>
@@ -1160,7 +1160,7 @@
         <v>204</v>
       </c>
       <c r="Q7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="S7">
         <v>1.2121</v>
@@ -1228,7 +1228,7 @@
     </row>
     <row r="8" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B8">
         <v>150</v>
@@ -1263,7 +1263,7 @@
     </row>
     <row r="9" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -1287,12 +1287,12 @@
         <v>0</v>
       </c>
       <c r="Q9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B10">
         <v>41</v>
@@ -1301,7 +1301,7 @@
         <v>75</v>
       </c>
       <c r="Q10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="S10">
         <v>0.72160000000000002</v>
@@ -1327,7 +1327,7 @@
     </row>
     <row r="11" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B11">
         <v>44</v>
@@ -1336,7 +1336,7 @@
         <v>91</v>
       </c>
       <c r="Q11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="S11">
         <v>0.22459999999999999</v>
@@ -1362,7 +1362,7 @@
     </row>
     <row r="12" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B12">
         <v>101</v>
@@ -1371,7 +1371,7 @@
         <v>148</v>
       </c>
       <c r="Q12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="S12">
         <v>1.46E-2</v>
@@ -1397,7 +1397,7 @@
     </row>
     <row r="13" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B13">
         <v>104</v>
@@ -1406,7 +1406,7 @@
         <v>195</v>
       </c>
       <c r="Q13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="S13">
         <v>1.7</v>
@@ -1414,7 +1414,7 @@
     </row>
     <row r="14" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B14">
         <v>105</v>
@@ -1423,7 +1423,7 @@
         <v>159</v>
       </c>
       <c r="Q14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="S14">
         <v>1843</v>
@@ -1431,7 +1431,7 @@
     </row>
     <row r="15" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B15">
         <v>105</v>
@@ -1442,7 +1442,7 @@
     </row>
     <row r="16" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B16">
         <v>109</v>
@@ -1453,7 +1453,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B17">
         <v>112</v>
@@ -1464,7 +1464,7 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B18">
         <v>163</v>
@@ -1475,12 +1475,12 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B20">
         <v>44</v>
@@ -1491,7 +1491,7 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B21">
         <v>104</v>
